--- a/experiment result/128_0.2_40_zs10_kappa_lp.xlsx
+++ b/experiment result/128_0.2_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08476125984644017</v>
+        <v>0.01514061252436024</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08926440249811199</v>
+        <v>0.05996560931579703</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09726207272387702</v>
+        <v>0.05316074337894162</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09828015012793405</v>
+        <v>0.04019216790083436</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0888390007302876</v>
+        <v>0.04787149857108587</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1015051857556168</v>
+        <v>0.04655184568070041</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1035645405817715</v>
+        <v>0.05254767769901225</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08537132071166158</v>
+        <v>0.03063777592774166</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07742053972231194</v>
+        <v>0.02455872955653005</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09281420851613338</v>
+        <v>0.159073905082442</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1086672752297724</v>
+        <v>0.0178277325655727</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1253715893557988</v>
+        <v>0.1253161805753125</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.11475844097034</v>
+        <v>0.02562423344724076</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1065723357652526</v>
+        <v>0.02218487723484223</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1155425882798892</v>
+        <v>0.07811772403642754</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.105744172826412</v>
+        <v>0.01618941863866674</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.09083655359812931</v>
+        <v>0.03589865549708856</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07462936015668849</v>
+        <v>0.004961335456062593</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09142932375218707</v>
+        <v>0.1203618659025716</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1084203471897352</v>
+        <v>0.05580806832356559</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07810883402957458</v>
+        <v>0.01416245820613335</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07784164364234028</v>
+        <v>0.005397036460504712</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09392104697707407</v>
+        <v>0.05590814215839471</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04936608685278818</v>
+        <v>0.004809393020463846</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.07609659809812137</v>
+        <v>0.002976266837256364</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1221419030713259</v>
+        <v>0.06470054164086525</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108955454293993</v>
+        <v>0.03440181009207993</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08636126216852458</v>
+        <v>0.09406303896860294</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08914678295151654</v>
+        <v>0.03298209722096811</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.12631300780641</v>
+        <v>0.04774014341782463</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03720408721289165</v>
+        <v>0.001630604178634616</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.09096637591406531</v>
+        <v>0.02922520089706144</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.11221374366986</v>
+        <v>0.05868611099404743</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07077683477685764</v>
+        <v>0.08217104702722886</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1090039121866304</v>
+        <v>0.06233869998262195</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1067920386554378</v>
+        <v>0.08182550009954427</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09320300947496554</v>
+        <v>0.01410771870164103</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1081438326114873</v>
+        <v>0.02626570843840264</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08061109163498217</v>
+        <v>0.08219308671298657</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09858158932987936</v>
+        <v>0.1169281061166088</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1128086964758834</v>
+        <v>0.1129419008053107</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0612121594123284</v>
+        <v>0.02370676230948012</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09438672540909723</v>
+        <v>0.1073274070192524</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1039925624228236</v>
+        <v>0.0629244005799075</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08898128171773165</v>
+        <v>0.0987088974330928</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.09616755382638453</v>
+        <v>0.02994425420913651</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1128849999159211</v>
+        <v>0.1915392057083768</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07856852858232742</v>
+        <v>0.02182584090679662</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1084122639692091</v>
+        <v>0.007833885432299906</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07684883527571437</v>
+        <v>0.0111345741739739</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09817993942471871</v>
+        <v>0.05259640526745143</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1011697601317874</v>
+        <v>0.05292735651169959</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.05201839239397458</v>
+        <v>0.0102159906673522</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04943410819218049</v>
+        <v>0.003165336015019699</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08710463160040613</v>
+        <v>0.03508481550822408</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1073551354845131</v>
+        <v>0.05989321891163137</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08635215191731985</v>
+        <v>0.03321118153331357</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09996977092318488</v>
+        <v>0.07021049968859483</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08520416025219738</v>
+        <v>0.01749395663988431</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09355409072290706</v>
+        <v>0.03262154723824539</v>
       </c>
     </row>
   </sheetData>
